--- a/biology/Botanique/Véronique_couchée/Véronique_couchée.xlsx
+++ b/biology/Botanique/Véronique_couchée/Véronique_couchée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_couch%C3%A9e</t>
+          <t>Véronique_couchée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veronica prostrata
-La véronique couchée (Veronica prostrata) est l'une des 200 espèces de plantes à fleurs du genre Veronica de la famille des Scrophulariaceae selon la classification classique de Cronquist (1981)[1] ou des Plantaginaceae selon la classification phylogénétique.
+La véronique couchée (Veronica prostrata) est l'une des 200 espèces de plantes à fleurs du genre Veronica de la famille des Scrophulariaceae selon la classification classique de Cronquist (1981) ou des Plantaginaceae selon la classification phylogénétique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_couch%C3%A9e</t>
+          <t>Véronique_couchée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tige d'abord couchée se redressant pour porter l'inflorescence. Corolle bleu vif de 6 à 8 mm de diamètre, sépales glabres.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_couch%C3%A9e</t>
+          <t>Véronique_couchée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses calcaires sèches.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_couch%C3%A9e</t>
+          <t>Véronique_couchée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Deux sous-espèces :
 Veronica prostrata prostrata
-Veronica prostrata scheereri J.P. Brandt syn. Veronica scheereri (J.P. Brandt) Holub[2].</t>
+Veronica prostrata scheereri J.P. Brandt syn. Veronica scheereri (J.P. Brandt) Holub.</t>
         </is>
       </c>
     </row>
